--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H200_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5512048192771084</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9945652173913043</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7093023255813952</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1289338581949202</v>
+        <v>0.1456688015212096</v>
       </c>
       <c r="J2" t="n">
-        <v>1617.830247568442</v>
+        <v>1927.439087632391</v>
       </c>
       <c r="K2" t="n">
-        <v>3317747.735355615</v>
+        <v>5108328.212361648</v>
       </c>
       <c r="L2" t="n">
-        <v>1821.468565568897</v>
+        <v>2260.16110318748</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3847663867220842</v>
+        <v>0.0527262846390254</v>
       </c>
     </row>
   </sheetData>
